--- a/SpringMVC_Mybatis_Shiro-master/src/main/webapp/file/playerMoney.xlsx
+++ b/SpringMVC_Mybatis_Shiro-master/src/main/webapp/file/playerMoney.xlsx
@@ -46,10 +46,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>资金余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总资产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +55,10 @@
   </si>
   <si>
     <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票市值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +421,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -434,16 +434,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
